--- a/input_data/data_ground_truth/8_valores/valores.xlsx
+++ b/input_data/data_ground_truth/8_valores/valores.xlsx
@@ -1,246 +1,227 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="valores" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="valores"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000-2030-O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000-2050-O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000-2030-P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000-2050-P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5001-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5002-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5003-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5003-2030-O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5003-2050-O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5003-2030-P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5003-2050-P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5004-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5005-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5006-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5007-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alta Floresta D'Oeste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariquemes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cacoal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerejeiras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado do Oeste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Marques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espigão D'Oeste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guajará-Mirim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ji-Paraná</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machadinho D'Oeste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ouro Preto do Oeste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pimenta Bueno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porto Velho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presidente Médici</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolim de Moura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Luzia D'Oeste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vilhena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova Mamoré</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>2-2015</t>
+  </si>
+  <si>
+    <t>5000-2030-O</t>
+  </si>
+  <si>
+    <t>5000-2050-O</t>
+  </si>
+  <si>
+    <t>5000-2030-P</t>
+  </si>
+  <si>
+    <t>5000-2050-P</t>
+  </si>
+  <si>
+    <t>5001-2015</t>
+  </si>
+  <si>
+    <t>5002-2015</t>
+  </si>
+  <si>
+    <t>5003-2015</t>
+  </si>
+  <si>
+    <t>5003-2030-O</t>
+  </si>
+  <si>
+    <t>5003-2050-O</t>
+  </si>
+  <si>
+    <t>5003-2030-P</t>
+  </si>
+  <si>
+    <t>5003-2050-P</t>
+  </si>
+  <si>
+    <t>5004-2015</t>
+  </si>
+  <si>
+    <t>5005-2015</t>
+  </si>
+  <si>
+    <t>5006-2015</t>
+  </si>
+  <si>
+    <t>5007-2015</t>
+  </si>
+  <si>
+    <t>1100015</t>
+  </si>
+  <si>
+    <t>Alta Floresta D&amp;apos;Oeste</t>
+  </si>
+  <si>
+    <t>1100023</t>
+  </si>
+  <si>
+    <t>Ariquemes</t>
+  </si>
+  <si>
+    <t>1100049</t>
+  </si>
+  <si>
+    <t>Cacoal</t>
+  </si>
+  <si>
+    <t>1100056</t>
+  </si>
+  <si>
+    <t>Cerejeiras</t>
+  </si>
+  <si>
+    <t>1100064</t>
+  </si>
+  <si>
+    <t>Colorado do Oeste</t>
+  </si>
+  <si>
+    <t>1100080</t>
+  </si>
+  <si>
+    <t>Costa Marques</t>
+  </si>
+  <si>
+    <t>1100098</t>
+  </si>
+  <si>
+    <t>Espigão D&amp;apos;Oeste</t>
+  </si>
+  <si>
+    <t>1100106</t>
+  </si>
+  <si>
+    <t>Guajará-Mirim</t>
+  </si>
+  <si>
+    <t>1100114</t>
+  </si>
+  <si>
+    <t>Jaru</t>
+  </si>
+  <si>
+    <t>1100122</t>
+  </si>
+  <si>
+    <t>Ji-Paraná</t>
+  </si>
+  <si>
+    <t>1100130</t>
+  </si>
+  <si>
+    <t>Machadinho D&amp;apos;Oeste</t>
+  </si>
+  <si>
+    <t>1100155</t>
+  </si>
+  <si>
+    <t>Ouro Preto do Oeste</t>
+  </si>
+  <si>
+    <t>1100189</t>
+  </si>
+  <si>
+    <t>Pimenta Bueno</t>
+  </si>
+  <si>
+    <t>1100205</t>
+  </si>
+  <si>
+    <t>Porto Velho</t>
+  </si>
+  <si>
+    <t>1100254</t>
+  </si>
+  <si>
+    <t>Presidente Médici</t>
+  </si>
+  <si>
+    <t>1100288</t>
+  </si>
+  <si>
+    <t>Rolim de Moura</t>
+  </si>
+  <si>
+    <t>1100296</t>
+  </si>
+  <si>
+    <t>Santa Luzia D&amp;apos;Oeste</t>
+  </si>
+  <si>
+    <t>1100304</t>
+  </si>
+  <si>
+    <t>Vilhena</t>
+  </si>
+  <si>
+    <t>1100338</t>
+  </si>
+  <si>
+    <t>Nova Mamoré</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -252,13 +233,34 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FFffc000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -266,156 +268,369 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F818D"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T19" activeCellId="0" sqref="T19"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="3" style="0" width="14.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="0" width="10.5"/>
+    <col min="1" max="1" style="7" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,1077 +686,1071 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>0.58004001596897</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>0.679501771703989</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>0.635045214513727</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>0.703511665266981</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>0.689404949258627</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>0.806633367915323</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>0.251806216454027</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>0.3</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="6">
         <v>0.46</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>0.38</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>0.51</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6">
         <v>0.48</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="6">
         <v>0.690607281794881</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>0.187168284406015</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>0.172675984067355</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="6">
         <v>0.643464893806262</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="6">
         <v>0.518948242316349</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="6">
         <v>0.646593807126705</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>0.62493263841433</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="6">
         <v>0.62493263841433</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="6">
         <v>0.671110098170615</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="6">
         <v>0.530039492274218</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="6">
         <v>0.340063415171096</v>
       </c>
-      <c r="J3" s="6" t="n">
+      <c r="J3" s="6">
         <v>0.26</v>
       </c>
-      <c r="K3" s="6" t="n">
+      <c r="K3" s="6">
         <v>0.45</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="6">
         <v>0.41</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="6">
         <v>0.41</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="6">
         <v>0.5</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="6">
         <v>0.570991130092722</v>
       </c>
-      <c r="P3" s="6" t="n">
+      <c r="P3" s="6">
         <v>0.592939614220435</v>
       </c>
-      <c r="Q3" s="6" t="n">
+      <c r="Q3" s="6">
         <v>0.169848598505876</v>
       </c>
-      <c r="R3" s="6" t="n">
+      <c r="R3" s="6">
         <v>0.536406518021754</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>0.708620470233299</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="6">
         <v>0.74796276549555</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>0.720555883855326</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="6">
         <v>0.714664694492201</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="6">
         <v>0.742733566765675</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="6">
         <v>0.707553404923502</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="6">
         <v>0.393826665385519</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="6">
         <v>0.38</v>
       </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4" s="6">
         <v>0.45</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="6">
         <v>0.4</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="6">
         <v>0.39</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="6">
         <v>0.44</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="6">
         <v>0.690607281794881</v>
       </c>
-      <c r="P4" s="6" t="n">
+      <c r="P4" s="6">
         <v>0.408596234199239</v>
       </c>
-      <c r="Q4" s="6" t="n">
+      <c r="Q4" s="6">
         <v>0.244685832976119</v>
       </c>
-      <c r="R4" s="6" t="n">
+      <c r="R4" s="6">
         <v>0.688585905681939</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6">
         <v>0.519978587427105</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>0.729582203886894</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>0.702629350782218</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>0.71841096024771</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="6">
         <v>0.706676227578738</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="6">
         <v>0.471292830322615</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6">
         <v>0.384149574445352</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="6">
         <v>0.26</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5" s="6">
         <v>0.64</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="6">
         <v>0.57</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="6">
         <v>0.61</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="6">
         <v>0.58</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="6">
         <v>0.437104537763042</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="P5" s="6">
         <v>0.486520699002306</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="Q5" s="6">
         <v>0.505871329785902</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="R5" s="6">
         <v>0.28745357215629</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="6">
         <v>0.592357894578979</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="6">
         <v>0.709424839994261</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="6">
         <v>0.69834229067696</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="6">
         <v>0.720003459389335</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="6">
         <v>0.779055534730612</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="6">
         <v>0.613497325278628</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="6">
         <v>0.402780183949449</v>
       </c>
-      <c r="J6" s="6" t="n">
+      <c r="J6" s="6">
         <v>0.26</v>
       </c>
-      <c r="K6" s="6" t="n">
+      <c r="K6" s="6">
         <v>0.43</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="6">
         <v>0.41</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="6">
         <v>0.45</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="6">
         <v>0.58</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="6">
         <v>0.437104537763042</v>
       </c>
-      <c r="P6" s="6" t="n">
+      <c r="P6" s="6">
         <v>0.168716283067166</v>
       </c>
-      <c r="Q6" s="6" t="n">
+      <c r="Q6" s="6">
         <v>0.275329151445951</v>
       </c>
-      <c r="R6" s="6" t="n">
+      <c r="R6" s="6">
         <v>0.455040552474789</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>0.567420917959593</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="6">
         <v>0.603290170379874</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="6">
         <v>0.573796372951498</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="6">
         <v>0.554120752327722</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="6">
         <v>0.540014036319368</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="6">
         <v>0.6245220950403</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="6">
         <v>0.256720852226934</v>
       </c>
-      <c r="J7" s="6" t="n">
+      <c r="J7" s="6">
         <v>0.36</v>
       </c>
-      <c r="K7" s="6" t="n">
+      <c r="K7" s="6">
         <v>0.42</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="6">
         <v>0.37</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="6">
         <v>0.34</v>
       </c>
-      <c r="N7" s="6" t="n">
+      <c r="N7" s="6">
         <v>0.32</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="O7" s="6">
         <v>0.448795304117594</v>
       </c>
-      <c r="P7" s="6" t="n">
+      <c r="P7" s="6">
         <v>0.164833996329523</v>
       </c>
-      <c r="Q7" s="6" t="n">
+      <c r="Q7" s="6">
         <v>0.447817294476809</v>
       </c>
-      <c r="R7" s="6" t="n">
+      <c r="R7" s="6">
         <v>0.520483055185772</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="6">
         <v>0.579364790855447</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="6">
         <v>0.659605568654101</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="6">
         <v>0.617181247531227</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="6">
         <v>0.605245833909201</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="6">
         <v>0.644588129171452</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="6">
         <v>0.674764694253153</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="6">
         <v>0.264833164380987</v>
       </c>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="6">
         <v>0.34</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="6">
         <v>0.48</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="6">
         <v>0.4</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="6">
         <v>0.38</v>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="N8" s="6">
         <v>0.45</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="6">
         <v>0.611733514608378</v>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="P8" s="6">
         <v>0.341837704892334</v>
       </c>
-      <c r="Q8" s="6" t="n">
+      <c r="Q8" s="6">
         <v>0.197632001228399</v>
       </c>
-      <c r="R8" s="6" t="n">
+      <c r="R8" s="6">
         <v>0.565943829798232</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>0.337602398296328</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>0.450574993784121</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>0.425394823400742</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>0.473294445392395</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>0.431949892103335</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>0.56910855849017</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>0.157387102371809</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="6">
         <v>0.24</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="6">
         <v>0.39</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="6">
         <v>0.35</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="6">
         <v>0.43</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="6">
         <v>0.36</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="6">
         <v>0.513344930517577</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="6">
         <v>0.403278779601266</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="6">
         <v>0.494614320784849</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="R9" s="6">
         <v>0.165551792937168</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="6">
         <v>0.357920473908054</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="6">
         <v>0.470275035697477</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>0.426858433537221</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="6">
         <v>0.438495335828194</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="6">
         <v>0.475173944023219</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="6">
         <v>0.512569859338716</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="6">
         <v>0.157814290806917</v>
       </c>
-      <c r="J10" s="6" t="n">
+      <c r="J10" s="6">
         <v>0.29</v>
       </c>
-      <c r="K10" s="6" t="n">
+      <c r="K10" s="6">
         <v>0.47</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="6">
         <v>0.39</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="M10" s="6">
         <v>0.41</v>
       </c>
-      <c r="N10" s="6" t="n">
+      <c r="N10" s="6">
         <v>0.48</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="O10" s="6">
         <v>0.437104537763042</v>
       </c>
-      <c r="P10" s="6" t="n">
+      <c r="P10" s="6">
         <v>0.394273107939467</v>
       </c>
-      <c r="Q10" s="6" t="n">
+      <c r="Q10" s="6">
         <v>0.172885709577704</v>
       </c>
-      <c r="R10" s="6" t="n">
+      <c r="R10" s="6">
         <v>0.46136777988458</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>0.564125566452552</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="6">
         <v>0.646413908506119</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="6">
         <v>0.631066178619336</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="6">
         <v>0.59695308208696</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="6">
         <v>0.636295377349211</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="6">
         <v>0.499831832496426</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="6">
         <v>0.345003198133949</v>
       </c>
-      <c r="J11" s="6" t="n">
+      <c r="J11" s="6">
         <v>0.33</v>
       </c>
-      <c r="K11" s="6" t="n">
+      <c r="K11" s="6">
         <v>0.47</v>
       </c>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="6">
         <v>0.44</v>
       </c>
-      <c r="M11" s="6" t="n">
+      <c r="M11" s="6">
         <v>0.38</v>
       </c>
-      <c r="N11" s="6" t="n">
+      <c r="N11" s="6">
         <v>0.45</v>
       </c>
-      <c r="O11" s="6" t="n">
+      <c r="O11" s="6">
         <v>0.437104537763042</v>
       </c>
-      <c r="P11" s="6" t="n">
+      <c r="P11" s="6">
         <v>0.422740570814199</v>
       </c>
-      <c r="Q11" s="6" t="n">
+      <c r="Q11" s="6">
         <v>0.147701611286079</v>
       </c>
-      <c r="R11" s="6" t="n">
+      <c r="R11" s="6">
         <v>0.628052529778176</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="6">
         <v>0.471653197511635</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="6">
         <v>0.594069563592116</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="6">
         <v>0.559956467059741</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="6">
         <v>0.553751044629763</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="6">
         <v>0.6094172934789</v>
       </c>
-      <c r="H12" s="6" t="n">
+      <c r="H12" s="6">
         <v>0.473078634496152</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="6">
         <v>0.310930113498755</v>
       </c>
-      <c r="J12" s="6" t="n">
+      <c r="J12" s="6">
         <v>0.26</v>
       </c>
-      <c r="K12" s="6" t="n">
+      <c r="K12" s="6">
         <v>0.44</v>
       </c>
-      <c r="L12" s="6" t="n">
+      <c r="L12" s="6">
         <v>0.38</v>
       </c>
-      <c r="M12" s="6" t="n">
+      <c r="M12" s="6">
         <v>0.37</v>
       </c>
-      <c r="N12" s="6" t="n">
+      <c r="N12" s="6">
         <v>0.47</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="O12" s="6">
         <v>0.358494776472968</v>
       </c>
-      <c r="P12" s="6" t="n">
+      <c r="P12" s="6">
         <v>0.34296235927199</v>
       </c>
-      <c r="Q12" s="6" t="n">
+      <c r="Q12" s="6">
         <v>0.0913159970758543</v>
       </c>
-      <c r="R12" s="6" t="n">
+      <c r="R12" s="6">
         <v>0.382351444347324</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>0.60558359871831</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="6">
         <v>0.7286401015179</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="6">
         <v>0.661699489351116</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="6">
         <v>0.650346527974745</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="6">
         <v>0.687871940771877</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="6">
         <v>0.582162894448399</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="6">
         <v>0.353981254771086</v>
       </c>
-      <c r="J13" s="6" t="n">
+      <c r="J13" s="6">
         <v>0.33</v>
       </c>
-      <c r="K13" s="6" t="n">
+      <c r="K13" s="6">
         <v>0.56</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="L13" s="6">
         <v>0.42</v>
       </c>
-      <c r="M13" s="6" t="n">
+      <c r="M13" s="6">
         <v>0.4</v>
       </c>
-      <c r="N13" s="6" t="n">
+      <c r="N13" s="6">
         <v>0.47</v>
       </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" s="6">
         <v>0.380555300285721</v>
       </c>
-      <c r="P13" s="6" t="n">
+      <c r="P13" s="6">
         <v>0.138343656884145</v>
       </c>
-      <c r="Q13" s="6" t="n">
+      <c r="Q13" s="6">
         <v>0.398344827590744</v>
       </c>
-      <c r="R13" s="6" t="n">
+      <c r="R13" s="6">
         <v>0.357076091526384</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="6">
         <v>0.474786401377574</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="6">
         <v>0.555027179176228</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="6">
         <v>0.518348570981204</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="6">
         <v>0.500667444431328</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="6">
         <v>0.54512400162159</v>
       </c>
-      <c r="H14" s="6" t="n">
+      <c r="H14" s="6">
         <v>0.573803477672202</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="6">
         <v>0.198689640030471</v>
       </c>
-      <c r="J14" s="6" t="n">
+      <c r="J14" s="6">
         <v>0.34</v>
       </c>
-      <c r="K14" s="6" t="n">
+      <c r="K14" s="6">
         <v>0.48</v>
       </c>
-      <c r="L14" s="6" t="n">
+      <c r="L14" s="6">
         <v>0.41</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="6">
         <v>0.38</v>
       </c>
-      <c r="N14" s="6" t="n">
+      <c r="N14" s="6">
         <v>0.46</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="6">
         <v>0.437104537763042</v>
       </c>
-      <c r="P14" s="6" t="n">
+      <c r="P14" s="6">
         <v>0.257425715625404</v>
       </c>
-      <c r="Q14" s="6" t="n">
+      <c r="Q14" s="6">
         <v>0.337307357153285</v>
       </c>
-      <c r="R14" s="6" t="n">
+      <c r="R14" s="6">
         <v>0.443175749802309</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
       <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="6">
         <v>0.124094809867587</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="6">
         <v>0.290858216710157</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="6">
         <v>0.274029954465007</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="6">
         <v>0.255889118413002</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="6">
         <v>0.32125216826166</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="6">
         <v>0.234461333980491</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="6">
         <v>0.17441825098083</v>
       </c>
-      <c r="J15" s="6" t="n">
+      <c r="J15" s="6">
         <v>0.21</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="6">
         <v>0.43</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="6">
         <v>0.4</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="6">
         <v>0.37</v>
       </c>
-      <c r="N15" s="6" t="n">
+      <c r="N15" s="6">
         <v>0.49</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="6">
         <v>0.341971169992378</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="P15" s="6">
         <v>0.846897288840176</v>
       </c>
-      <c r="Q15" s="6" t="n">
+      <c r="Q15" s="6">
         <v>0.145843912639773</v>
       </c>
-      <c r="R15" s="6" t="n">
+      <c r="R15" s="6">
         <v>0.370372201549164</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="6">
         <v>0.630791502799617</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="6">
         <v>0.736603854859711</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="6">
         <v>0.697732114966401</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="6">
         <v>0.697732114966401</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="6">
         <v>0.663619018434025</v>
       </c>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="6">
         <v>0.707218106387133</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="6">
         <v>0.324728001455687</v>
       </c>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="6">
         <v>0.33</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="6">
         <v>0.52</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="6">
         <v>0.44</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="6">
         <v>0.44</v>
       </c>
-      <c r="N16" s="6" t="n">
+      <c r="N16" s="6">
         <v>0.38</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="6">
         <v>0.58953760905096</v>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="P16" s="6">
         <v>0.229901871424073</v>
       </c>
-      <c r="Q16" s="6" t="n">
+      <c r="Q16" s="6">
         <v>0.236724283025347</v>
       </c>
-      <c r="R16" s="6" t="n">
+      <c r="R16" s="6">
         <v>0.549852297836994</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="6">
         <v>0.636253919902793</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="6">
         <v>0.733090095728371</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="6">
         <v>0.689673493568115</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="6">
         <v>0.789912176738247</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="6">
         <v>0.733090095728371</v>
       </c>
-      <c r="H17" s="6" t="n">
+      <c r="H17" s="6">
         <v>0.652245240166691</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="6">
         <v>0.383715689446106</v>
       </c>
-      <c r="J17" s="6" t="n">
+      <c r="J17" s="6">
         <v>0.31</v>
       </c>
-      <c r="K17" s="6" t="n">
+      <c r="K17" s="6">
         <v>0.47</v>
       </c>
-      <c r="L17" s="6" t="n">
+      <c r="L17" s="6">
         <v>0.39</v>
       </c>
-      <c r="M17" s="6" t="n">
+      <c r="M17" s="6">
         <v>0.6</v>
       </c>
-      <c r="N17" s="6" t="n">
+      <c r="N17" s="6">
         <v>0.47</v>
       </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="6">
         <v>0.590928779614358</v>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="P17" s="6">
         <v>0.355227426694672</v>
       </c>
-      <c r="Q17" s="6" t="n">
+      <c r="Q17" s="6">
         <v>0.206933693242397</v>
       </c>
-      <c r="R17" s="6" t="n">
+      <c r="R17" s="6">
         <v>0.550860865184091</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="6">
         <v>0.520175912307029</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="6">
         <v>0.614523406114037</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="6">
         <v>0.577844797919012</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="6">
         <v>0.658558041972664</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="6">
         <v>0.604620228559398</v>
       </c>
-      <c r="H18" s="6" t="n">
+      <c r="H18" s="6">
         <v>0.599458740542523</v>
       </c>
-      <c r="I18" s="6" t="n">
+      <c r="I18" s="6">
         <v>0.245597279393319</v>
       </c>
-      <c r="J18" s="6" t="n">
+      <c r="J18" s="6">
         <v>0.32</v>
       </c>
-      <c r="K18" s="6" t="n">
+      <c r="K18" s="6">
         <v>0.48</v>
       </c>
-      <c r="L18" s="6" t="n">
+      <c r="L18" s="6">
         <v>0.41</v>
       </c>
-      <c r="M18" s="6" t="n">
+      <c r="M18" s="6">
         <v>0.58</v>
       </c>
-      <c r="N18" s="6" t="n">
+      <c r="N18" s="6">
         <v>0.46</v>
       </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="6">
         <v>0.437104537763042</v>
       </c>
-      <c r="P18" s="6" t="n">
+      <c r="P18" s="6">
         <v>0.200090285864995</v>
       </c>
-      <c r="Q18" s="6" t="n">
+      <c r="Q18" s="6">
         <v>0.460711788509707</v>
       </c>
-      <c r="R18" s="6" t="n">
+      <c r="R18" s="6">
         <v>0.337413117237305</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="6">
         <v>0.576383746351002</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="6">
         <v>0.695247531201919</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="6">
         <v>0.643324358517786</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="6">
         <v>0.67073124015801</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="6">
         <v>0.68574867964066</v>
       </c>
-      <c r="H19" s="6" t="n">
+      <c r="H19" s="6">
         <v>0.548289834708421</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="6">
         <v>0.364676965820379</v>
       </c>
-      <c r="J19" s="6" t="n">
+      <c r="J19" s="6">
         <v>0.3</v>
       </c>
-      <c r="K19" s="6" t="n">
+      <c r="K19" s="6">
         <v>0.5</v>
       </c>
-      <c r="L19" s="6" t="n">
+      <c r="L19" s="6">
         <v>0.4</v>
       </c>
-      <c r="M19" s="6" t="n">
+      <c r="M19" s="6">
         <v>0.45</v>
       </c>
-      <c r="N19" s="6" t="n">
+      <c r="N19" s="6">
         <v>0.48</v>
       </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="6">
         <v>0.437104537763042</v>
       </c>
-      <c r="P19" s="6" t="n">
+      <c r="P19" s="6">
         <v>0.314444647431956</v>
       </c>
-      <c r="Q19" s="6" t="n">
+      <c r="Q19" s="6">
         <v>0.445314757001293</v>
       </c>
-      <c r="R19" s="6" t="n">
+      <c r="R19" s="6">
         <v>0.300305139153555</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="6">
         <v>0.244904783221441</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="6">
         <v>0.359498915240974</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="6">
         <v>0.346198749609103</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="6">
         <v>0.359498915240974</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="6">
         <v>0.372079792662857</v>
       </c>
-      <c r="H20" s="6" t="n">
+      <c r="H20" s="6">
         <v>0.419131367502085</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I20" s="6">
         <v>0.156527535286155</v>
       </c>
-      <c r="J20" s="6" t="n">
+      <c r="J20" s="6">
         <v>0.22</v>
       </c>
-      <c r="K20" s="6" t="n">
+      <c r="K20" s="6">
         <v>0.36</v>
       </c>
-      <c r="L20" s="6" t="n">
+      <c r="L20" s="6">
         <v>0.34</v>
       </c>
-      <c r="M20" s="6" t="n">
+      <c r="M20" s="6">
         <v>0.36</v>
       </c>
-      <c r="N20" s="6" t="n">
+      <c r="N20" s="6">
         <v>0.38</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="6">
         <v>0.313195390181289</v>
       </c>
-      <c r="P20" s="6" t="n">
+      <c r="P20" s="6">
         <v>0.383099321658771</v>
       </c>
-      <c r="Q20" s="6" t="n">
+      <c r="Q20" s="6">
         <v>0.179421246932733</v>
       </c>
-      <c r="R20" s="6" t="n">
+      <c r="R20" s="6">
         <v>0.349510408848621</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>